--- a/banco de dados.xlsx
+++ b/banco de dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\3gre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB63126-02B3-4DD8-8DC8-7B2E28C3C194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA114E-E949-4A76-A927-33826EF86556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{D8CA6BA0-45A0-4F43-BE34-DC6D64D84973}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>setor</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>inicio_jornada</t>
   </si>
   <si>
@@ -430,6 +427,15 @@
   </si>
   <si>
     <t>SOCIO EMOCIONAL</t>
+  </si>
+  <si>
+    <t>funcao</t>
+  </si>
+  <si>
+    <t>Psicóloga</t>
+  </si>
+  <si>
+    <t>Assistente Social</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDA5B15-2AFF-4F9D-BF67-DB92664C4BB2}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +820,7 @@
     <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -834,33 +841,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="6">
         <v>1758934</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3">
         <v>0.33333333333333331</v>
@@ -870,14 +880,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="6">
         <v>1774107</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3">
         <v>0.33333333333333331</v>
@@ -887,14 +900,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="6">
         <v>6100295</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3">
         <v>0.33333333333333331</v>
@@ -904,14 +920,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="6">
         <v>6031871</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <v>0.33333333333333331</v>
@@ -921,14 +940,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="6">
         <v>6120504</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
         <v>0.33333333333333331</v>
@@ -938,14 +960,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="6">
         <v>1894480</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
         <v>0.5</v>
@@ -955,14 +980,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="6">
         <v>6304435</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3">
         <v>0.5</v>
@@ -972,14 +1000,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="6">
         <v>6180744</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
         <v>0.5</v>
@@ -989,14 +1020,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="6">
         <v>6151701</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3">
         <v>0.5</v>
@@ -1006,15 +1040,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="6">
         <v>6102140</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1023,31 +1060,37 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="6">
         <v>6135986</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="6">
         <v>6377971</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3">
         <v>0.33333333333333331</v>
@@ -1057,14 +1100,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="6">
         <v>6208923</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
         <v>0.33333333333333331</v>
@@ -1074,14 +1120,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="6">
         <v>6867685</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3">
         <v>0.33333333333333331</v>
@@ -1091,14 +1140,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="6">
         <v>6590811</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3">
         <v>0.33333333333333331</v>
@@ -1107,15 +1159,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="6">
         <v>6332218</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3">
         <v>0.33333333333333331</v>
@@ -1124,15 +1179,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="6">
         <v>6255931</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3">
         <v>0.33333333333333331</v>
@@ -1141,15 +1199,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="6">
         <v>6203078</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3">
         <v>0.5</v>
@@ -1158,15 +1219,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="6">
         <v>1836633</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3">
         <v>0.5</v>
@@ -1175,15 +1239,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="6">
         <v>1755757</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3">
         <v>0.5</v>
@@ -1192,15 +1259,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="6">
         <v>6559204</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
         <v>0.5</v>
@@ -1209,15 +1279,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="6">
         <v>6151876</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="3">
         <v>0.33333333333333331</v>
@@ -1228,15 +1301,18 @@
       <c r="N23" s="5"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="6">
         <v>6212654</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="3">
         <v>0.33333333333333331</v>
@@ -1247,15 +1323,18 @@
       <c r="N24" s="5"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="6">
         <v>6256104</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3">
         <v>0.33333333333333331</v>
@@ -1266,15 +1345,18 @@
       <c r="N25" s="5"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="6">
         <v>6202110</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3">
         <v>0.33333333333333331</v>
@@ -1285,15 +1367,18 @@
       <c r="N26" s="5"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="6">
         <v>6174591</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="3">
         <v>0.33333333333333331</v>
@@ -1304,15 +1389,18 @@
       <c r="N27" s="5"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="6">
         <v>6224903</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="3">
         <v>0.33333333333333331</v>
@@ -1323,15 +1411,18 @@
       <c r="N28" s="5"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="6">
         <v>6202985</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="3">
         <v>0.33333333333333331</v>
@@ -1342,15 +1433,18 @@
       <c r="N29" s="5"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="6">
         <v>6085024</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="3">
         <v>0.5</v>
@@ -1361,15 +1455,18 @@
       <c r="N30" s="5"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="6">
         <v>6248012</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="3">
         <v>0.5</v>
@@ -1380,15 +1477,18 @@
       <c r="N31" s="5"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="6">
         <v>6303994</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F32" s="3">
         <v>0.5</v>
@@ -1399,15 +1499,18 @@
       <c r="N32" s="5"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="6">
         <v>6559204</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="3">
         <v>0.5</v>
@@ -1418,15 +1521,18 @@
       <c r="N33" s="5"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="6">
         <v>6207723</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" s="3">
         <v>0.5</v>
@@ -1436,15 +1542,18 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" s="6">
         <v>6926193</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3">
         <v>0.5</v>
@@ -1455,16 +1564,19 @@
       <c r="N35" s="5"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="6">
         <v>6352693</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
       <c r="F36" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1472,15 +1584,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="6">
         <v>6467563</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3">
         <v>0.33333333333333331</v>
@@ -1489,15 +1604,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" s="6">
         <v>6203060</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3">
         <v>0.33333333333333331</v>
@@ -1506,15 +1624,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" s="6">
         <v>6201601</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="3">
         <v>0.5</v>
@@ -1523,29 +1644,35 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="6">
         <v>6050476</v>
       </c>
       <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
         <v>52</v>
       </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="3">
         <v>0.33333333333333331</v>
@@ -1554,15 +1681,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" s="6">
         <v>6135927</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="3">
         <v>0.33333333333333331</v>
@@ -1571,15 +1701,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="6">
         <v>6216978</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="3">
         <v>0.5</v>
@@ -1588,16 +1721,19 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" s="6">
         <v>908927</v>
       </c>
       <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
         <v>56</v>
       </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
       <c r="F44" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1605,235 +1741,298 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" s="6">
         <v>9028901</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" s="6">
         <v>6317316</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" s="6">
         <v>6212913</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" s="6">
         <v>6021484</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" s="6">
         <v>6089593</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" s="6">
         <v>6213634</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" s="6">
         <v>6260101</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" s="6">
         <v>6141145</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" s="6">
         <v>6199429</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" s="6">
         <v>6199411</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" s="6">
         <v>6187510</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" s="6">
         <v>6201181</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" s="6">
         <v>6200192</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" s="6">
         <v>6141145</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" s="6">
         <v>6250271</v>
       </c>
       <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" s="6">
         <v>6230202</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" s="6">
         <v>6091016</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" s="6">
         <v>6159273</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" s="6">
         <v>6311423</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" s="6">
         <v>6192505</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" s="6">
         <v>6996558</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F65" s="3">
         <v>0.33333333333333331</v>
@@ -1842,15 +2041,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" s="6">
         <v>6749763</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F66" s="3">
         <v>0.33333333333333331</v>
@@ -1859,15 +2061,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" s="6">
         <v>6788530</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F67" s="3">
         <v>0.5</v>
@@ -1876,16 +2081,19 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" s="6">
         <v>6252265</v>
       </c>
       <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" t="s">
         <v>81</v>
       </c>
-      <c r="D68" t="s">
-        <v>82</v>
-      </c>
       <c r="F68" s="3">
         <v>0.5</v>
       </c>
@@ -1893,15 +2101,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" s="6">
         <v>6228275</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="3">
         <v>0.33333333333333331</v>
@@ -1910,15 +2121,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" s="6">
         <v>1732579</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="3">
         <v>0.33333333333333331</v>
@@ -1927,15 +2141,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" s="6">
         <v>1765833</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="3">
         <v>0.33333333333333331</v>
@@ -1944,15 +2161,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" s="6">
         <v>6226191</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" s="3">
         <v>0.5</v>
@@ -1961,15 +2181,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" s="6">
         <v>6232817</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F73" s="3">
         <v>0.5</v>
@@ -1978,15 +2201,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" s="6">
         <v>6071473</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F74" s="3">
         <v>0.5</v>
@@ -1995,15 +2221,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" s="6">
         <v>6747698</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="3">
         <v>0.5</v>
@@ -2012,16 +2241,19 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" s="6">
         <v>6214754</v>
       </c>
       <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" t="s">
         <v>90</v>
       </c>
-      <c r="D76" t="s">
-        <v>91</v>
-      </c>
       <c r="F76" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -2029,15 +2261,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" s="6">
         <v>934933</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F77" s="3">
         <v>0.33333333333333331</v>
@@ -2046,15 +2281,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" s="6">
         <v>1464914</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="3">
         <v>0.5</v>
@@ -2063,15 +2301,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" s="6">
         <v>6089585</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F79" s="3">
         <v>0.5</v>
@@ -2080,15 +2321,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" s="6">
         <v>1303198</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F80" s="3">
         <v>0.33333333333333331</v>
@@ -2097,15 +2341,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" s="6">
         <v>6202977</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="3">
         <v>0.33333333333333331</v>
@@ -2114,26 +2361,32 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" s="6">
         <v>6482040</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" s="6">
         <v>1782100</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F83" s="3">
         <v>0.33333333333333331</v>
@@ -2142,15 +2395,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" s="6">
         <v>6198201</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F84" s="3">
         <v>0.33333333333333331</v>
@@ -2159,15 +2415,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" s="6">
         <v>6192432</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F85" s="3">
         <v>0.5</v>
@@ -2176,15 +2435,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" s="6">
         <v>6881921</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F86" s="3">
         <v>0.5</v>
@@ -2193,15 +2455,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" s="6">
         <v>6210601</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F87" s="3">
         <v>0.33333333333333331</v>
@@ -2210,15 +2475,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" s="6">
         <v>6685927</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F88" s="3">
         <v>0.33333333333333331</v>
@@ -2227,15 +2495,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" s="6">
         <v>6219055</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F89" s="3">
         <v>0.33333333333333331</v>
@@ -2244,15 +2515,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" s="6">
         <v>6055796</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="3">
         <v>0.33333333333333331</v>
@@ -2261,15 +2535,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" s="6">
         <v>6055176</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F91" s="3">
         <v>0.5</v>
@@ -2278,15 +2555,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" s="6">
         <v>1766881</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F92" s="3">
         <v>0.33333333333333331</v>
@@ -2295,15 +2575,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" s="6">
         <v>6475469</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F93" s="3">
         <v>0.5</v>
@@ -2312,15 +2595,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" s="6">
         <v>6132464</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F94" s="3">
         <v>0.5</v>
@@ -2329,15 +2615,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" s="6">
         <v>6186653</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F95" s="3">
         <v>0.33333333333333331</v>
@@ -2346,15 +2635,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" s="6">
         <v>6172202</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F96" s="3">
         <v>0.33333333333333331</v>
@@ -2363,15 +2655,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" s="6">
         <v>6155511</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F97" s="3">
         <v>0.5</v>
@@ -2380,15 +2675,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" s="6">
         <v>1727923</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F98" s="3">
         <v>0.33333333333333331</v>
@@ -2397,15 +2695,18 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" s="6">
         <v>1783360</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F99" s="3">
         <v>0.33333333333333331</v>
@@ -2414,15 +2715,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" s="6">
         <v>6418911</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F100" s="3">
         <v>0.33333333333333331</v>
@@ -2431,15 +2735,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" s="6">
         <v>6877079</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F101" s="3">
         <v>0.33333333333333331</v>
@@ -2448,15 +2755,18 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" s="6">
         <v>6080502</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F102" s="3">
         <v>0.5</v>
@@ -2465,16 +2775,19 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" s="6">
         <v>6164951</v>
       </c>
       <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
         <v>118</v>
       </c>
-      <c r="D103" t="s">
-        <v>119</v>
-      </c>
       <c r="F103" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -2482,132 +2795,201 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" s="6">
         <v>6405339</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" s="6">
         <v>6868436</v>
       </c>
       <c r="C105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" s="6">
         <v>1936280</v>
       </c>
       <c r="C106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" s="6">
         <v>6225217</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" s="6">
         <v>6214185</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" s="6">
         <v>6234917</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" s="6">
         <v>1790340</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" s="6">
         <v>1794353</v>
       </c>
       <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" t="s">
         <v>127</v>
       </c>
-      <c r="D111" t="s">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6">
+        <v>6204767</v>
+      </c>
+      <c r="C112" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6">
+        <v>6204741</v>
+      </c>
+      <c r="C113" t="s">
         <v>129</v>
       </c>
-      <c r="D112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6">
+        <v>6223796</v>
+      </c>
+      <c r="C114" t="s">
         <v>130</v>
       </c>
-      <c r="D113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6">
+        <v>6204732</v>
+      </c>
+      <c r="C115" t="s">
         <v>131</v>
       </c>
-      <c r="D114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6">
+        <v>6221785</v>
+      </c>
+      <c r="C116" t="s">
         <v>132</v>
       </c>
-      <c r="D115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>133</v>
       </c>
-      <c r="D116" t="s">
-        <v>134</v>
+      <c r="E116" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
